--- a/PhanMem/Data/MayIn-LuongN1.xlsx
+++ b/PhanMem/Data/MayIn-LuongN1.xlsx
@@ -4,12 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="19440" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -820,7 +819,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1207,51 +1206,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1970,7 +1924,7 @@
     <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="174" fontId="77" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="83" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1991,6 +1945,54 @@
     <xf numFmtId="0" fontId="82" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="31" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="31" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="31" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="32" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2002,69 +2004,6 @@
     </xf>
     <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="31" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="31" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="31" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="32" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="659">
@@ -3027,7 +2966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -3042,20 +2981,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" ht="15.75">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="4" spans="1:5" ht="15.75">
       <c r="A4" s="2" t="s">
@@ -3093,10 +3032,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3108,166 +3047,112 @@
     <col min="5" max="5" width="10.42578125" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:11" ht="15.75">
+      <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+    <row r="2" spans="1:11">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+    <row r="3" spans="1:11">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:11" ht="15.75">
+      <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+    <row r="5" spans="1:11">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:11">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75">
+      <c r="A7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B7" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="E7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="17"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="17"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="17"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="17"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="22"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75">
-      <c r="A14" s="25" t="s">
+      <c r="G7" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="26" t="s">
+      <c r="J7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="26" t="s">
+      <c r="K7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="27" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="28"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="32"/>
+    <row r="8" spans="1:11">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="23"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3276,16 +3161,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>